--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ad193d0551a0b3/Asiakirjat/GitHub/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{77F7841B-6842-4804-B8B7-E727BD3860B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356A4103-424A-4962-94A5-2442F88B04C2}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{77F7841B-6842-4804-B8B7-E727BD3860B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F8C9DD-F376-4730-B005-6891DDCEFE50}"/>
   <bookViews>
     <workbookView xWindow="2507" yWindow="0" windowWidth="17493" windowHeight="12613" xr2:uid="{F865A9FA-FB1A-4FF2-A7AC-3050D4BF100C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Tyyppi</t>
   </si>
@@ -46,25 +46,19 @@
     <t>Ajon aloitus</t>
   </si>
   <si>
-    <t>Ajo aloitettu 04/05/2022 10:52:31</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
-    <t>Ostolaskutiedosto ladattu</t>
-  </si>
-  <si>
-    <t>Ostolaskutiedosto siirretty kansioon C:\Users\teemu\OneDrive\Asiakirjat\GitHub\UiPath_Jeff\Harjoitustyö_Ryhmä5_Jeff\Data</t>
-  </si>
-  <si>
-    <t>Valittu kuukausi on: 03</t>
-  </si>
-  <si>
-    <t>Rivimäärä: 3557</t>
-  </si>
-  <si>
-    <t>Suurimmat toimittajat suodatettu</t>
+    <t>Kierros: -1</t>
+  </si>
+  <si>
+    <t>Kierros: 0</t>
+  </si>
+  <si>
+    <t>Kesto</t>
+  </si>
+  <si>
+    <t>Robotin läpimenoaika: 00:00:22</t>
   </si>
 </sst>
 </file>
@@ -100,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823D850-67C7-47F2-AD86-38358F80E38F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,48 +429,32 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>44659.506539351853</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ad193d0551a0b3/Asiakirjat/GitHub/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{77F7841B-6842-4804-B8B7-E727BD3860B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F8C9DD-F376-4730-B005-6891DDCEFE50}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{77F7841B-6842-4804-B8B7-E727BD3860B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1394DDFA-AD32-4EFF-8FC8-26852CEE7CB4}"/>
   <bookViews>
     <workbookView xWindow="2507" yWindow="0" windowWidth="17493" windowHeight="12613" xr2:uid="{F865A9FA-FB1A-4FF2-A7AC-3050D4BF100C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Tyyppi</t>
   </si>
@@ -49,16 +49,31 @@
     <t>Info</t>
   </si>
   <si>
-    <t>Kierros: -1</t>
-  </si>
-  <si>
-    <t>Kierros: 0</t>
-  </si>
-  <si>
     <t>Kesto</t>
   </si>
   <si>
-    <t>Robotin läpimenoaika: 00:00:22</t>
+    <t>Ostolaskutiedosto ladattu</t>
+  </si>
+  <si>
+    <t>Ostolaskutiedosto siirretty kansioon C:\Users\teemu\OneDrive\Asiakirjat\GitHub\UiPath_Jeff\Harjoitustyö_Ryhmä5_Jeff\Data</t>
+  </si>
+  <si>
+    <t>Warn</t>
+  </si>
+  <si>
+    <t>Tiedostoa ei löytynyt, yritetään uudelleen</t>
+  </si>
+  <si>
+    <t>Robotin läpimenoaika: 00:00:19</t>
+  </si>
+  <si>
+    <t>Fatal</t>
+  </si>
+  <si>
+    <t>Ostolaskudatan haku epäonnistui</t>
+  </si>
+  <si>
+    <t>Robotin läpimenoaika: 00:00:25</t>
   </si>
 </sst>
 </file>
@@ -411,11 +426,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823D850-67C7-47F2-AD86-38358F80E38F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -430,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44659.506539351853</v>
+        <v>44659.568020833336</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -438,23 +456,47 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ad193d0551a0b3/Asiakirjat/GitHub/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{77F7841B-6842-4804-B8B7-E727BD3860B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1394DDFA-AD32-4EFF-8FC8-26852CEE7CB4}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{77F7841B-6842-4804-B8B7-E727BD3860B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EA6FFAF-D007-430B-89C1-3AC65E71A5DF}"/>
   <bookViews>
     <workbookView xWindow="2507" yWindow="0" windowWidth="17493" windowHeight="12613" xr2:uid="{F865A9FA-FB1A-4FF2-A7AC-3050D4BF100C}"/>
   </bookViews>
@@ -32,50 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Tyyppi</t>
-  </si>
-  <si>
-    <t>Tapahtuma</t>
-  </si>
-  <si>
-    <t>Ajon aloitus</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Kesto</t>
-  </si>
-  <si>
-    <t>Ostolaskutiedosto ladattu</t>
-  </si>
-  <si>
-    <t>Ostolaskutiedosto siirretty kansioon C:\Users\teemu\OneDrive\Asiakirjat\GitHub\UiPath_Jeff\Harjoitustyö_Ryhmä5_Jeff\Data</t>
-  </si>
-  <si>
-    <t>Warn</t>
-  </si>
-  <si>
-    <t>Tiedostoa ei löytynyt, yritetään uudelleen</t>
-  </si>
-  <si>
-    <t>Robotin läpimenoaika: 00:00:19</t>
-  </si>
-  <si>
-    <t>Fatal</t>
-  </si>
-  <si>
-    <t>Ostolaskudatan haku epäonnistui</t>
-  </si>
-  <si>
-    <t>Robotin läpimenoaika: 00:00:25</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823D850-67C7-47F2-AD86-38358F80E38F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,69 +391,8 @@
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44659.568020833336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C9EDC-E201-4031-869D-939B2FFB3EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92E2D3-32BF-46D9-AC28-713D1AB8CB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="3720" windowWidth="27240" windowHeight="11625" xr2:uid="{1C17AB47-C5FC-4879-BD81-FB3DC36CDD20}"/>
+    <workbookView xWindow="285" yWindow="3720" windowWidth="27240" windowHeight="11625" xr2:uid="{AE288B06-702D-4410-BA11-6E1BE2CD1DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Tyyppi</t>
   </si>
@@ -49,13 +49,73 @@
     <t>Info</t>
   </si>
   <si>
-    <t>Aloitetaan ostolaskujen syöttö, syötetään 10 laskua</t>
+    <t>Ostolaskutiedosto siirretty kansioon C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data</t>
+  </si>
+  <si>
+    <t>Ostolaskudatan haku onnistui</t>
+  </si>
+  <si>
+    <t>Valittu kuukausi on: 01</t>
+  </si>
+  <si>
+    <t>Rivimäärä: 3673</t>
+  </si>
+  <si>
+    <t>Kuukausidata haettiin onnistuneesti</t>
+  </si>
+  <si>
+    <t>Suurimmat toimittajat suodatettu</t>
+  </si>
+  <si>
+    <t>Lisätty käyttäjä Jeff Windows credentials manageriin</t>
+  </si>
+  <si>
+    <t>Käyttäjän ja salasanan lisääminen onnistui</t>
+  </si>
+  <si>
+    <t>Toimittaja E-K SOSIAALI- JA TERVEYSPIIRI lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja PALLAS RAKENNUS KAAKKOIS-SUOMI lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja SKANSKA TALONRAKENNUS OY ITÄ-S lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja SAIMAAN TUKIPALVELUT OY lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja LPR ENERGIA OY lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Syötetty summa ei kelpaa, yritetään uudelleen</t>
+  </si>
+  <si>
+    <t>Valittu summa: 10000, sitä pienemmät laskut maksetaan heti</t>
+  </si>
+  <si>
+    <t>Aloitetaan ostolaskujen syöttö, syötetään 8 laskua</t>
+  </si>
+  <si>
+    <t>Maksamaton lasku</t>
+  </si>
+  <si>
+    <t>Tositenro: 74-1, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 14224492</t>
+  </si>
+  <si>
+    <t>Tositenro: 75-2, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 145477</t>
   </si>
   <si>
     <t>Maksettu lasku</t>
   </si>
   <si>
-    <t>Maksamaton lasku</t>
+    <t>Tositenro: 423-3, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 5056</t>
+  </si>
+  <si>
+    <t>Tositenro: 478-4, Toimittaja: LPR ENERGIA OY, Summa: 1403.33</t>
   </si>
   <si>
     <t>Laskujen syöttö ja maksaminen ok</t>
@@ -64,64 +124,7 @@
     <t>Kesto</t>
   </si>
   <si>
-    <t>Ostolaskutiedosto siirretty kansioon C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data</t>
-  </si>
-  <si>
-    <t>Ostolaskudatan haku onnistui</t>
-  </si>
-  <si>
-    <t>Valittu kuukausi on: 03</t>
-  </si>
-  <si>
-    <t>Rivimäärä: 3557</t>
-  </si>
-  <si>
-    <t>Kuukausidata haettiin onnistuneesti</t>
-  </si>
-  <si>
-    <t>Suurimmat toimittajat suodatettu</t>
-  </si>
-  <si>
-    <t>Lisätty käyttäjä Jeff Windows credentials manageriin</t>
-  </si>
-  <si>
-    <t>Käyttäjän ja salasanan lisääminen onnistui</t>
-  </si>
-  <si>
-    <t>Toimittaja E-K SOSIAALI- JA TERVEYSPIIRI lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja PALLAS RAKENNUS KAAKKOIS-SUOMI lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja PEAB INFRA OY lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja LPR ENERGIA OY lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja SAIMAAN TUKIPALVELUT OY lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Valittu summa: 1000, sitä pienemmät laskut maksetaan heti</t>
-  </si>
-  <si>
-    <t>Tositenro: 4599-1, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 324.5</t>
-  </si>
-  <si>
-    <t>Tositenro: 4599-2, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 145215.28</t>
-  </si>
-  <si>
-    <t>Tositenro: 4642-3, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 14224492</t>
-  </si>
-  <si>
-    <t>Tositenro: 4878-4, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 5056</t>
-  </si>
-  <si>
-    <t>Tositenro: 5453-5, Toimittaja: PEAB INFRA OY, Summa: 165000</t>
-  </si>
-  <si>
-    <t>Robotin läpimenoaika: 00:04:24</t>
+    <t>Robotin läpimenoaika: 00:05:42</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D247CA70-3035-4AEF-B2A0-9C2C8C43C0C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB43FE10-CDB9-4763-A66D-E13ED01E2357}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -493,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44665.724918981483</v>
+        <v>44665.886643518519</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,15 +600,15 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,47 +616,47 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,15 +664,15 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92E2D3-32BF-46D9-AC28-713D1AB8CB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883B6DD-F138-4299-A3A1-D267F09E7FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="3720" windowWidth="27240" windowHeight="11625" xr2:uid="{AE288B06-702D-4410-BA11-6E1BE2CD1DEF}"/>
+    <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{CBED54DE-6A88-4461-BD38-B0C4926B7E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Tyyppi</t>
   </si>
@@ -55,10 +55,10 @@
     <t>Ostolaskudatan haku onnistui</t>
   </si>
   <si>
-    <t>Valittu kuukausi on: 01</t>
-  </si>
-  <si>
-    <t>Rivimäärä: 3673</t>
+    <t>Valittu kuukausi on: 09</t>
+  </si>
+  <si>
+    <t>Rivimäärä: 4284</t>
   </si>
   <si>
     <t>Kuukausidata haettiin onnistuneesti</t>
@@ -73,49 +73,58 @@
     <t>Käyttäjän ja salasanan lisääminen onnistui</t>
   </si>
   <si>
+    <t>Jeff kirjautui Netvisoriin</t>
+  </si>
+  <si>
     <t>Toimittaja E-K SOSIAALI- JA TERVEYSPIIRI lisätty Netvisoriin</t>
   </si>
   <si>
-    <t>Toimittaja PALLAS RAKENNUS KAAKKOIS-SUOMI lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja SKANSKA TALONRAKENNUS OY ITÄ-S lisätty Netvisoriin</t>
+    <t>Toimittaja YIT SUOMI OY lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja SAVONLINJA OY lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja KYMENLAAKSON RAKENNUS OY lisätty Netvisoriin</t>
   </si>
   <si>
     <t>Toimittaja SAIMAAN TUKIPALVELUT OY lisätty Netvisoriin</t>
   </si>
   <si>
-    <t>Toimittaja LPR ENERGIA OY lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Syötetty summa ei kelpaa, yritetään uudelleen</t>
-  </si>
-  <si>
-    <t>Valittu summa: 10000, sitä pienemmät laskut maksetaan heti</t>
+    <t>Valittu summa: 40000, sitä pienemmät laskut maksetaan heti</t>
   </si>
   <si>
     <t>Aloitetaan ostolaskujen syöttö, syötetään 8 laskua</t>
   </si>
   <si>
+    <t>Maksettu lasku</t>
+  </si>
+  <si>
+    <t>Tositenro: 21872-1, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 330.02</t>
+  </si>
+  <si>
     <t>Maksamaton lasku</t>
   </si>
   <si>
-    <t>Tositenro: 74-1, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 14224492</t>
-  </si>
-  <si>
-    <t>Tositenro: 75-2, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 145477</t>
-  </si>
-  <si>
-    <t>Maksettu lasku</t>
-  </si>
-  <si>
-    <t>Tositenro: 423-3, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 5056</t>
-  </si>
-  <si>
-    <t>Tositenro: 478-4, Toimittaja: LPR ENERGIA OY, Summa: 1403.33</t>
+    <t>Tositenro: 21872-2, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 147686.85</t>
+  </si>
+  <si>
+    <t>Tositenro: 22435-3, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 14247356</t>
+  </si>
+  <si>
+    <t>Tositenro: 22574-4, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 5276.69</t>
+  </si>
+  <si>
+    <t>Tositenro: 23315-5, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 9555</t>
+  </si>
+  <si>
+    <t>Tositenro: 23359-6, Toimittaja: SAVONLINJA OY, Summa: 10305.88</t>
+  </si>
+  <si>
+    <t>Tositenro: 23448-7, Toimittaja: KYMENLAAKSON RAKENNUS OY, Summa: 30000</t>
+  </si>
+  <si>
+    <t>Tositenro: 23450-8, Toimittaja: KYMENLAAKSON RAKENNUS OY, Summa: 60000</t>
   </si>
   <si>
     <t>Laskujen syöttö ja maksaminen ok</t>
@@ -124,7 +133,7 @@
     <t>Kesto</t>
   </si>
   <si>
-    <t>Robotin läpimenoaika: 00:05:42</t>
+    <t>Robotin läpimenoaika: 00:05:54</t>
   </si>
 </sst>
 </file>
@@ -476,8 +485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB43FE10-CDB9-4763-A66D-E13ED01E2357}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE39536-8139-4251-9FB0-AC7CE328F595}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44665.886643518519</v>
+        <v>44665.928194444445</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,10 +614,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,20 +633,20 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -645,34 +654,66 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883B6DD-F138-4299-A3A1-D267F09E7FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E3DD8-9B26-4EB6-BA51-E2EF975C4883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{CBED54DE-6A88-4461-BD38-B0C4926B7E18}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tyyppi</t>
   </si>
@@ -49,91 +49,13 @@
     <t>Info</t>
   </si>
   <si>
-    <t>Ostolaskutiedosto siirretty kansioon C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data</t>
-  </si>
-  <si>
-    <t>Ostolaskudatan haku onnistui</t>
-  </si>
-  <si>
-    <t>Valittu kuukausi on: 09</t>
-  </si>
-  <si>
-    <t>Rivimäärä: 4284</t>
-  </si>
-  <si>
-    <t>Kuukausidata haettiin onnistuneesti</t>
-  </si>
-  <si>
-    <t>Suurimmat toimittajat suodatettu</t>
-  </si>
-  <si>
-    <t>Lisätty käyttäjä Jeff Windows credentials manageriin</t>
-  </si>
-  <si>
-    <t>Käyttäjän ja salasanan lisääminen onnistui</t>
-  </si>
-  <si>
-    <t>Jeff kirjautui Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja E-K SOSIAALI- JA TERVEYSPIIRI lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja YIT SUOMI OY lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja SAVONLINJA OY lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja KYMENLAAKSON RAKENNUS OY lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Toimittaja SAIMAAN TUKIPALVELUT OY lisätty Netvisoriin</t>
-  </si>
-  <si>
-    <t>Valittu summa: 40000, sitä pienemmät laskut maksetaan heti</t>
-  </si>
-  <si>
-    <t>Aloitetaan ostolaskujen syöttö, syötetään 8 laskua</t>
-  </si>
-  <si>
-    <t>Maksettu lasku</t>
-  </si>
-  <si>
-    <t>Tositenro: 21872-1, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 330.02</t>
-  </si>
-  <si>
-    <t>Maksamaton lasku</t>
-  </si>
-  <si>
-    <t>Tositenro: 21872-2, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 147686.85</t>
-  </si>
-  <si>
-    <t>Tositenro: 22435-3, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 14247356</t>
-  </si>
-  <si>
-    <t>Tositenro: 22574-4, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 5276.69</t>
-  </si>
-  <si>
-    <t>Tositenro: 23315-5, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 9555</t>
-  </si>
-  <si>
-    <t>Tositenro: 23359-6, Toimittaja: SAVONLINJA OY, Summa: 10305.88</t>
-  </si>
-  <si>
-    <t>Tositenro: 23448-7, Toimittaja: KYMENLAAKSON RAKENNUS OY, Summa: 30000</t>
-  </si>
-  <si>
-    <t>Tositenro: 23450-8, Toimittaja: KYMENLAAKSON RAKENNUS OY, Summa: 60000</t>
-  </si>
-  <si>
-    <t>Laskujen syöttö ja maksaminen ok</t>
-  </si>
-  <si>
     <t>Kesto</t>
   </si>
   <si>
-    <t>Robotin läpimenoaika: 00:05:54</t>
+    <t>Ei maksettavia laskuja</t>
+  </si>
+  <si>
+    <t>Robotin läpimenoaika: 00:00:32</t>
   </si>
 </sst>
 </file>
@@ -486,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE39536-8139-4251-9FB0-AC7CE328F595}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44665.928194444445</v>
+        <v>44665.965763888889</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,207 +435,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E3DD8-9B26-4EB6-BA51-E2EF975C4883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24FB2DD-CBEA-481F-AA6D-34FC9C95F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{CBED54DE-6A88-4461-BD38-B0C4926B7E18}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Tyyppi</t>
   </si>
@@ -52,10 +52,13 @@
     <t>Kesto</t>
   </si>
   <si>
+    <t>Jeff kirjautui ulos Netvisorista</t>
+  </si>
+  <si>
     <t>Ei maksettavia laskuja</t>
   </si>
   <si>
-    <t>Robotin läpimenoaika: 00:00:32</t>
+    <t>Robotin läpimenoaika: 00:00:11</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE39536-8139-4251-9FB0-AC7CE328F595}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44665.965763888889</v>
+        <v>44665.979942129627</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,15 +438,23 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Yhteenvetoraportti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24FB2DD-CBEA-481F-AA6D-34FC9C95F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA46EE-0C7B-4996-A2B4-C8460E58799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{CBED54DE-6A88-4461-BD38-B0C4926B7E18}"/>
+    <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{C899FA41-4126-40D7-96CA-DB377C9F31C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Tyyppi</t>
   </si>
@@ -49,16 +49,97 @@
     <t>Info</t>
   </si>
   <si>
+    <t>Ostolaskutiedosto siirretty kansioon C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data</t>
+  </si>
+  <si>
+    <t>Ostolaskudatan haku onnistui</t>
+  </si>
+  <si>
+    <t>Valittu kuukausi on: 02</t>
+  </si>
+  <si>
+    <t>Rivimäärä: 3356</t>
+  </si>
+  <si>
+    <t>Kuukausidata haettiin onnistuneesti</t>
+  </si>
+  <si>
+    <t>Suurimmat toimittajat suodatettu</t>
+  </si>
+  <si>
+    <t>Lisätty käyttäjä Jeff Windows credentials manageriin</t>
+  </si>
+  <si>
+    <t>Käyttäjän ja salasanan lisääminen onnistui</t>
+  </si>
+  <si>
+    <t>Jeff kirjautui Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja E-K SOSIAALI- JA TERVEYSPIIRI lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja YIT SUOMI OY lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja PALLAS RAKENNUS KAAKKOIS-SUOMI lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja LPR MUSIIKKIOPISTO lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Toimittaja SAIMAAN TUKIPALVELUT OY lisätty Netvisoriin</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Syötetty summa ei kelpaa, yritetään uudelleen</t>
+  </si>
+  <si>
+    <t>Valittu summa: 15000, sitä pienemmät laskut maksetaan heti</t>
+  </si>
+  <si>
+    <t>Aloitetaan ostolaskujen syöttö, syötetään 8 laskua</t>
+  </si>
+  <si>
+    <t>Maksamaton lasku</t>
+  </si>
+  <si>
+    <t>Tositenro: 1519-1, Toimittaja: YIT SUOMI OY, Summa: 1010000</t>
+  </si>
+  <si>
+    <t>Maksettu lasku</t>
+  </si>
+  <si>
+    <t>Tositenro: 1949-2, Toimittaja: SAIMAAN TUKIPALVELUT OY, Summa: 324.5</t>
+  </si>
+  <si>
+    <t>Laskun 1949-3 kirjaaminen ei onnistunut</t>
+  </si>
+  <si>
+    <t>Tositenro: 2404-4, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 14224492</t>
+  </si>
+  <si>
+    <t>Tositenro: 2709-5, Toimittaja: LPR MUSIIKKIOPISTO, Summa: 545725</t>
+  </si>
+  <si>
+    <t>Tositenro: 3198-6, Toimittaja: PALLAS RAKENNUS KAAKKOIS-SUOMI, Summa: 115000</t>
+  </si>
+  <si>
+    <t>Tositenro: 3219-7, Toimittaja: PALLAS RAKENNUS KAAKKOIS-SUOMI, Summa: 130000</t>
+  </si>
+  <si>
+    <t>Tositenro: 3287-8, Toimittaja: E-K SOSIAALI- JA TERVEYSPIIRI, Summa: 5056</t>
+  </si>
+  <si>
+    <t>Jeff kirjautui ulos Netvisorista</t>
+  </si>
+  <si>
     <t>Kesto</t>
   </si>
   <si>
-    <t>Jeff kirjautui ulos Netvisorista</t>
-  </si>
-  <si>
-    <t>Ei maksettavia laskuja</t>
-  </si>
-  <si>
-    <t>Robotin läpimenoaika: 00:00:11</t>
+    <t>Robotin läpimenoaika: 00:07:44</t>
   </si>
 </sst>
 </file>
@@ -410,8 +491,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE39536-8139-4251-9FB0-AC7CE328F595}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A7D82-C4FA-4F4D-AE3D-8EAD0335CB79}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44665.979942129627</v>
+        <v>44665.984733796293</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,10 +532,202 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
